--- a/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
+++ b/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E63703-84DC-8E48-840F-9BFE2F6DC654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4BA200-1702-8A42-8E68-D586D7AEA6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="306">
   <si>
     <t>Name</t>
   </si>
@@ -13963,10 +13963,10 @@
   <dimension ref="A1:AA1311"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14576,9 +14576,8 @@
         <f>Ownership_Scenarios!D2</f>
         <v>Low</v>
       </c>
-      <c r="O11" s="13" t="str">
-        <f>Energy_Storage_Scenarios!D2</f>
-        <v>IRENA_ref_high</v>
+      <c r="O11" s="13" t="s">
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="str">
         <f>V2G_Scenarios!D2</f>
@@ -14633,9 +14632,8 @@
         <f>Ownership_Scenarios!D3</f>
         <v>BAU</v>
       </c>
-      <c r="O12" s="13" t="str">
-        <f>Energy_Storage_Scenarios!D3</f>
-        <v>IRENA_remap_high</v>
+      <c r="O12" s="13" t="s">
+        <v>277</v>
       </c>
       <c r="P12" s="7" t="str">
         <f>V2G_Scenarios!D3</f>
@@ -14689,7 +14687,9 @@
         <f>Ownership_Scenarios!D4</f>
         <v>High</v>
       </c>
-      <c r="O13" s="13"/>
+      <c r="O13" s="13" t="s">
+        <v>280</v>
+      </c>
       <c r="P13" s="7" t="str">
         <f>V2G_Scenarios!D4</f>
         <v>High</v>

--- a/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
+++ b/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4BA200-1702-8A42-8E68-D586D7AEA6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D173B866-7A9A-9C48-BD71-3F3FC2CD1110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="309">
   <si>
     <t>Name</t>
   </si>
@@ -979,6 +979,15 @@
   </si>
   <si>
     <t>Moderate</t>
+  </si>
+  <si>
+    <t>BNEF</t>
+  </si>
+  <si>
+    <t>Faraday</t>
+  </si>
+  <si>
+    <t>LTO</t>
   </si>
 </sst>
 </file>
@@ -13963,10 +13972,10 @@
   <dimension ref="A1:AA1311"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14707,9 +14716,8 @@
         <f>Chemical_Elements!D5</f>
         <v>Li</v>
       </c>
-      <c r="F14" t="str">
-        <f>Drive_Train!D5</f>
-        <v>OTH</v>
+      <c r="F14" t="s">
+        <v>21</v>
       </c>
       <c r="G14" t="str">
         <f>Battery_Chemistry!D5</f>
@@ -14737,6 +14745,9 @@
         <f>Battery_Chemistry!D6</f>
         <v>NCM217</v>
       </c>
+      <c r="H15" t="s">
+        <v>306</v>
+      </c>
       <c r="O15" s="13"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -14755,6 +14766,9 @@
         <f>Battery_Chemistry!D7</f>
         <v>NCM523</v>
       </c>
+      <c r="H16" t="s">
+        <v>307</v>
+      </c>
       <c r="O16" s="13"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -14948,6 +14962,9 @@
       <c r="D27" s="7" t="str">
         <f>Chemical_Elements!D18</f>
         <v>S</v>
+      </c>
+      <c r="G27" t="s">
+        <v>308</v>
       </c>
       <c r="O27" s="13"/>
     </row>

--- a/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
+++ b/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D173B866-7A9A-9C48-BD71-3F3FC2CD1110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B57F1B-20BC-5A42-B6CE-4482EF95083E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="311">
   <si>
     <t>Name</t>
   </si>
@@ -988,6 +988,12 @@
   </si>
   <si>
     <t>LTO</t>
+  </si>
+  <si>
+    <t>V2G mandate</t>
+  </si>
+  <si>
+    <t>No V2G</t>
   </si>
 </sst>
 </file>
@@ -13972,10 +13978,10 @@
   <dimension ref="A1:AA1311"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14728,6 +14734,9 @@
         <v>Roskill</v>
       </c>
       <c r="O14" s="13"/>
+      <c r="P14" s="7" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
@@ -14749,6 +14758,9 @@
         <v>306</v>
       </c>
       <c r="O15" s="13"/>
+      <c r="P15" s="7" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="6">

--- a/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
+++ b/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B57F1B-20BC-5A42-B6CE-4482EF95083E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0692F95-3CE7-F440-9051-2CDBB3B18D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="312">
   <si>
     <t>Name</t>
   </si>
@@ -990,10 +990,13 @@
     <t>LTO</t>
   </si>
   <si>
+    <t>Early</t>
+  </si>
+  <si>
+    <t>No V2G</t>
+  </si>
+  <si>
     <t>V2G mandate</t>
-  </si>
-  <si>
-    <t>No V2G</t>
   </si>
 </sst>
 </file>
@@ -13981,7 +13984,7 @@
       <pane xSplit="1" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14594,9 +14597,8 @@
       <c r="O11" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="P11" s="7" t="str">
-        <f>V2G_Scenarios!D2</f>
-        <v>Low</v>
+      <c r="P11" s="7" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -14650,9 +14652,8 @@
       <c r="O12" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="P12" s="7" t="str">
-        <f>V2G_Scenarios!D3</f>
-        <v>Moderate</v>
+      <c r="P12" s="7" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -14705,9 +14706,8 @@
       <c r="O13" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="P13" s="7" t="str">
-        <f>V2G_Scenarios!D4</f>
-        <v>High</v>
+      <c r="P13" s="7" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -14735,7 +14735,7 @@
       </c>
       <c r="O14" s="13"/>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -14782,6 +14782,9 @@
         <v>307</v>
       </c>
       <c r="O16" s="13"/>
+      <c r="P16" s="7" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="6">

--- a/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
+++ b/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0692F95-3CE7-F440-9051-2CDBB3B18D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ED81AA-CE50-EA43-90A4-60D7BEE6B783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13981,10 +13981,10 @@
   <dimension ref="A1:AA1311"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="P14" sqref="P14"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14683,10 +14683,6 @@
       <c r="I13" s="7" t="str">
         <f>Recycling_Process!D4</f>
         <v>Pyrometallurgy</v>
-      </c>
-      <c r="J13" s="7" t="str">
-        <f>EV_penetration_scenario!D4</f>
-        <v>Net Zero</v>
       </c>
       <c r="K13" s="7" t="str">
         <f>Size!D4</f>

--- a/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
+++ b/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ED81AA-CE50-EA43-90A4-60D7BEE6B783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91304CD-0245-F746-8FB0-A3E77897FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="313">
   <si>
     <t>Name</t>
   </si>
@@ -997,6 +997,9 @@
   </si>
   <si>
     <t>V2G mandate</t>
+  </si>
+  <si>
+    <t>CP4All</t>
   </si>
 </sst>
 </file>
@@ -13981,10 +13984,10 @@
   <dimension ref="A1:AA1311"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14729,7 +14732,9 @@
         <f>Chemistry_Scenarios!D5</f>
         <v>Roskill</v>
       </c>
-      <c r="O14" s="13"/>
+      <c r="O14" s="13" t="s">
+        <v>312</v>
+      </c>
       <c r="P14" s="7" t="s">
         <v>311</v>
       </c>

--- a/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
+++ b/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91304CD-0245-F746-8FB0-A3E77897FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95AD7FC-38D7-FC43-A1F9-21D44AA92A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="314">
   <si>
     <t>Name</t>
   </si>
@@ -1000,6 +1000,9 @@
   </si>
   <si>
     <t>CP4All</t>
+  </si>
+  <si>
+    <t>No reuse</t>
   </si>
 </sst>
 </file>
@@ -13984,10 +13987,10 @@
   <dimension ref="A1:AA1311"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14589,9 +14592,8 @@
       <c r="L11" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M11" s="7" t="str">
-        <f>Reuse_Scenarios!D2</f>
-        <v>LFP reused</v>
+      <c r="M11" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="N11" s="7" t="str">
         <f>Ownership_Scenarios!D2</f>
@@ -14601,7 +14603,7 @@
         <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -14645,8 +14647,8 @@
         <v>Medium</v>
       </c>
       <c r="M12" s="7" t="str">
-        <f>Reuse_Scenarios!D3</f>
-        <v>Direct recycling</v>
+        <f>Reuse_Scenarios!D2</f>
+        <v>LFP reused</v>
       </c>
       <c r="N12" s="7" t="str">
         <f>Ownership_Scenarios!D3</f>
@@ -14656,7 +14658,7 @@
         <v>277</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -14706,7 +14708,7 @@
         <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -14736,7 +14738,7 @@
         <v>312</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -14760,7 +14762,7 @@
       </c>
       <c r="O15" s="13"/>
       <c r="P15" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">

--- a/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
+++ b/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95AD7FC-38D7-FC43-A1F9-21D44AA92A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEE359E-12FA-6442-9BCB-6646300BB40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="316">
   <si>
     <t>Name</t>
   </si>
@@ -1003,6 +1003,12 @@
   </si>
   <si>
     <t>No reuse</t>
+  </si>
+  <si>
+    <t>Slow EV</t>
+  </si>
+  <si>
+    <t>Fast EV</t>
   </si>
 </sst>
 </file>
@@ -13987,10 +13993,10 @@
   <dimension ref="A1:AA1311"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="I6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14581,9 +14587,8 @@
         <f>Recycling_Process!D2</f>
         <v>Direct</v>
       </c>
-      <c r="J11" s="7" t="str">
-        <f>EV_penetration_scenario!D2</f>
-        <v>STEP</v>
+      <c r="J11" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="K11" s="7" t="str">
         <f>Size!D2</f>
@@ -14634,9 +14639,8 @@
         <f>Recycling_Process!D3</f>
         <v>Hydrometallurgy</v>
       </c>
-      <c r="J12" s="7" t="str">
-        <f>EV_penetration_scenario!D3</f>
-        <v>SD</v>
+      <c r="J12" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="K12" s="7" t="str">
         <f>Size!D3</f>

--- a/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
+++ b/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEE359E-12FA-6442-9BCB-6646300BB40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AC0090-C668-D74B-B244-745B35DBDD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="315">
   <si>
     <t>Name</t>
   </si>
@@ -988,9 +988,6 @@
   </si>
   <si>
     <t>LTO</t>
-  </si>
-  <si>
-    <t>Early</t>
   </si>
   <si>
     <t>No V2G</t>
@@ -13993,10 +13990,10 @@
   <dimension ref="A1:AA1311"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="F6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14588,7 +14585,7 @@
         <v>Direct</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="str">
         <f>Size!D2</f>
@@ -14598,7 +14595,7 @@
         <v>281</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N11" s="7" t="str">
         <f>Ownership_Scenarios!D2</f>
@@ -14608,7 +14605,7 @@
         <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -14640,7 +14637,7 @@
         <v>Hydrometallurgy</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K12" s="7" t="str">
         <f>Size!D3</f>
@@ -14659,7 +14656,7 @@
         <v>BAU</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>281</v>
@@ -14709,10 +14706,10 @@
         <v>High</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -14738,11 +14735,8 @@
         <f>Chemistry_Scenarios!D5</f>
         <v>Roskill</v>
       </c>
-      <c r="O14" s="13" t="s">
-        <v>312</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -14765,9 +14759,6 @@
         <v>306</v>
       </c>
       <c r="O15" s="13"/>
-      <c r="P15" s="7" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
@@ -14789,9 +14780,6 @@
         <v>307</v>
       </c>
       <c r="O16" s="13"/>
-      <c r="P16" s="7" t="s">
-        <v>309</v>
-      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="6">

--- a/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
+++ b/docs/Files/ODYM_Classifications_Master_Vehicle_System.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10313"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AC0090-C668-D74B-B244-745B35DBDD42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7441F2B8-6619-D54C-BAB9-4E96C55327A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="316">
   <si>
     <t>Name</t>
   </si>
@@ -984,9 +984,6 @@
     <t>BNEF</t>
   </si>
   <si>
-    <t>Faraday</t>
-  </si>
-  <si>
     <t>LTO</t>
   </si>
   <si>
@@ -1006,6 +1003,12 @@
   </si>
   <si>
     <t>Fast EV</t>
+  </si>
+  <si>
+    <t>All_LFP</t>
+  </si>
+  <si>
+    <t>Next_gen_LFP</t>
   </si>
 </sst>
 </file>
@@ -1123,6 +1126,231 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>142</xdr:col>
+      <xdr:colOff>392547</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>150092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>151</xdr:col>
+      <xdr:colOff>531092</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>15010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF4468C8-371B-CC40-8354-06DA8BE62644}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="129817092" y="49807092"/>
+          <a:ext cx="6477000" cy="5753100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>111</xdr:col>
+      <xdr:colOff>588819</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>92365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>121</xdr:col>
+      <xdr:colOff>23092</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>153555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8B6A85-82EA-E84C-B332-694DA5B01528}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="108180910" y="41505910"/>
+          <a:ext cx="6477000" cy="5753100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>80819</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>219364</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>95828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD384C88-3D88-E54A-8EF5-8F0E6DFB3F44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="86544728" y="33204728"/>
+          <a:ext cx="6477000" cy="5753100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05FF87E0-8A7D-1340-8042-48D612A23035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="64908546" y="24903546"/>
+          <a:ext cx="6477000" cy="5753100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>473364</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>115455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>611909</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>176646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08FE8FCE-6A18-9446-8F09-BA1F4623669F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43272364" y="16602364"/>
+          <a:ext cx="6477000" cy="5753100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13990,10 +14218,10 @@
   <dimension ref="A1:AA1311"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="5" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14585,7 +14813,7 @@
         <v>Direct</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K11" s="7" t="str">
         <f>Size!D2</f>
@@ -14595,7 +14823,7 @@
         <v>281</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N11" s="7" t="str">
         <f>Ownership_Scenarios!D2</f>
@@ -14605,7 +14833,7 @@
         <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -14637,7 +14865,7 @@
         <v>Hydrometallurgy</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K12" s="7" t="str">
         <f>Size!D3</f>
@@ -14706,7 +14934,7 @@
         <v>High</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>277</v>
@@ -14731,12 +14959,11 @@
         <f>Battery_Chemistry!D5</f>
         <v>NCM111</v>
       </c>
-      <c r="H14" t="str">
-        <f>Chemistry_Scenarios!D5</f>
-        <v>Roskill</v>
+      <c r="H14" t="s">
+        <v>306</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -14756,7 +14983,7 @@
         <v>NCM217</v>
       </c>
       <c r="H15" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="O15" s="13"/>
     </row>
@@ -14777,7 +15004,7 @@
         <v>NCM523</v>
       </c>
       <c r="H16" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="O16" s="13"/>
     </row>
@@ -14974,7 +15201,7 @@
         <v>S</v>
       </c>
       <c r="G27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O27" s="13"/>
     </row>
@@ -26911,6 +27138,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
